--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="soft1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="success1" sheetId="6" r:id="rId6"/>
     <sheet name="success2" sheetId="7" r:id="rId7"/>
     <sheet name="success3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="2325">
   <si>
     <t>Epoch</t>
   </si>
@@ -4522,16 +4523,2516 @@
   </si>
   <si>
     <t>0.0671647</t>
+  </si>
+  <si>
+    <t>0.423138</t>
+  </si>
+  <si>
+    <t>0.406403</t>
+  </si>
+  <si>
+    <t>0.13255</t>
+  </si>
+  <si>
+    <t>0.1249</t>
+  </si>
+  <si>
+    <t>0.347861</t>
+  </si>
+  <si>
+    <t>0.333813</t>
+  </si>
+  <si>
+    <t>0.106917</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>0.311713</t>
+  </si>
+  <si>
+    <t>0.299534</t>
+  </si>
+  <si>
+    <t>0.09455</t>
+  </si>
+  <si>
+    <t>0.0879</t>
+  </si>
+  <si>
+    <t>0.285191</t>
+  </si>
+  <si>
+    <t>0.27473</t>
+  </si>
+  <si>
+    <t>0.0856667</t>
+  </si>
+  <si>
+    <t>0.262903</t>
+  </si>
+  <si>
+    <t>0.254037</t>
+  </si>
+  <si>
+    <t>0.0782833</t>
+  </si>
+  <si>
+    <t>0.0731</t>
+  </si>
+  <si>
+    <t>0.243609</t>
+  </si>
+  <si>
+    <t>0.236192</t>
+  </si>
+  <si>
+    <t>0.07205</t>
+  </si>
+  <si>
+    <t>0.226718</t>
+  </si>
+  <si>
+    <t>0.22062</t>
+  </si>
+  <si>
+    <t>0.06645</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.212011</t>
+  </si>
+  <si>
+    <t>0.207059</t>
+  </si>
+  <si>
+    <t>0.0618333</t>
+  </si>
+  <si>
+    <t>0.0588</t>
+  </si>
+  <si>
+    <t>0.199206</t>
+  </si>
+  <si>
+    <t>0.195227</t>
+  </si>
+  <si>
+    <t>0.05805</t>
+  </si>
+  <si>
+    <t>0.0563</t>
+  </si>
+  <si>
+    <t>0.188099</t>
+  </si>
+  <si>
+    <t>0.184994</t>
+  </si>
+  <si>
+    <t>0.0547333</t>
+  </si>
+  <si>
+    <t>0.0534</t>
+  </si>
+  <si>
+    <t>0.178457</t>
+  </si>
+  <si>
+    <t>0.17612</t>
+  </si>
+  <si>
+    <t>0.0518333</t>
+  </si>
+  <si>
+    <t>0.0517</t>
+  </si>
+  <si>
+    <t>0.170046</t>
+  </si>
+  <si>
+    <t>0.168396</t>
+  </si>
+  <si>
+    <t>0.0492167</t>
+  </si>
+  <si>
+    <t>0.0493</t>
+  </si>
+  <si>
+    <t>0.162675</t>
+  </si>
+  <si>
+    <t>0.161631</t>
+  </si>
+  <si>
+    <t>0.0468333</t>
+  </si>
+  <si>
+    <t>0.0464</t>
+  </si>
+  <si>
+    <t>0.156184</t>
+  </si>
+  <si>
+    <t>0.155677</t>
+  </si>
+  <si>
+    <t>0.0452333</t>
+  </si>
+  <si>
+    <t>0.0441</t>
+  </si>
+  <si>
+    <t>0.150431</t>
+  </si>
+  <si>
+    <t>0.150394</t>
+  </si>
+  <si>
+    <t>0.0437333</t>
+  </si>
+  <si>
+    <t>0.0424</t>
+  </si>
+  <si>
+    <t>0.145307</t>
+  </si>
+  <si>
+    <t>0.145714</t>
+  </si>
+  <si>
+    <t>0.0421167</t>
+  </si>
+  <si>
+    <t>0.0412</t>
+  </si>
+  <si>
+    <t>0.140719</t>
+  </si>
+  <si>
+    <t>0.141531</t>
+  </si>
+  <si>
+    <t>0.0409333</t>
+  </si>
+  <si>
+    <t>0.136604</t>
+  </si>
+  <si>
+    <t>0.137786</t>
+  </si>
+  <si>
+    <t>0.03945</t>
+  </si>
+  <si>
+    <t>0.13289</t>
+  </si>
+  <si>
+    <t>0.134409</t>
+  </si>
+  <si>
+    <t>0.0385667</t>
+  </si>
+  <si>
+    <t>0.129516</t>
+  </si>
+  <si>
+    <t>0.131351</t>
+  </si>
+  <si>
+    <t>0.0375</t>
+  </si>
+  <si>
+    <t>0.0378</t>
+  </si>
+  <si>
+    <t>0.126446</t>
+  </si>
+  <si>
+    <t>0.12857</t>
+  </si>
+  <si>
+    <t>0.12363</t>
+  </si>
+  <si>
+    <t>0.126017</t>
+  </si>
+  <si>
+    <t>0.0357167</t>
+  </si>
+  <si>
+    <t>0.121035</t>
+  </si>
+  <si>
+    <t>0.123661</t>
+  </si>
+  <si>
+    <t>0.03485</t>
+  </si>
+  <si>
+    <t>0.118643</t>
+  </si>
+  <si>
+    <t>0.121477</t>
+  </si>
+  <si>
+    <t>0.0341</t>
+  </si>
+  <si>
+    <t>0.116434</t>
+  </si>
+  <si>
+    <t>0.119449</t>
+  </si>
+  <si>
+    <t>0.0345</t>
+  </si>
+  <si>
+    <t>0.114382</t>
+  </si>
+  <si>
+    <t>0.117585</t>
+  </si>
+  <si>
+    <t>0.0328167</t>
+  </si>
+  <si>
+    <t>0.11248</t>
+  </si>
+  <si>
+    <t>0.115849</t>
+  </si>
+  <si>
+    <t>0.0321833</t>
+  </si>
+  <si>
+    <t>0.0336</t>
+  </si>
+  <si>
+    <t>0.110706</t>
+  </si>
+  <si>
+    <t>0.114237</t>
+  </si>
+  <si>
+    <t>0.0315667</t>
+  </si>
+  <si>
+    <t>0.109046</t>
+  </si>
+  <si>
+    <t>0.11273</t>
+  </si>
+  <si>
+    <t>0.0312167</t>
+  </si>
+  <si>
+    <t>0.0325</t>
+  </si>
+  <si>
+    <t>0.107489</t>
+  </si>
+  <si>
+    <t>0.11131</t>
+  </si>
+  <si>
+    <t>0.0307167</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.106025</t>
+  </si>
+  <si>
+    <t>0.109981</t>
+  </si>
+  <si>
+    <t>0.0304667</t>
+  </si>
+  <si>
+    <t>0.0315</t>
+  </si>
+  <si>
+    <t>0.104645</t>
+  </si>
+  <si>
+    <t>0.108738</t>
+  </si>
+  <si>
+    <t>0.0300333</t>
+  </si>
+  <si>
+    <t>0.0312</t>
+  </si>
+  <si>
+    <t>0.10334</t>
+  </si>
+  <si>
+    <t>0.107559</t>
+  </si>
+  <si>
+    <t>0.0298</t>
+  </si>
+  <si>
+    <t>0.0308</t>
+  </si>
+  <si>
+    <t>0.102114</t>
+  </si>
+  <si>
+    <t>0.106452</t>
+  </si>
+  <si>
+    <t>0.02935</t>
+  </si>
+  <si>
+    <t>0.100949</t>
+  </si>
+  <si>
+    <t>0.105403</t>
+  </si>
+  <si>
+    <t>0.0291</t>
+  </si>
+  <si>
+    <t>0.0302</t>
+  </si>
+  <si>
+    <t>0.0998431</t>
+  </si>
+  <si>
+    <t>0.104402</t>
+  </si>
+  <si>
+    <t>0.0288167</t>
+  </si>
+  <si>
+    <t>0.0987909</t>
+  </si>
+  <si>
+    <t>0.103462</t>
+  </si>
+  <si>
+    <t>0.0285</t>
+  </si>
+  <si>
+    <t>0.0301</t>
+  </si>
+  <si>
+    <t>0.0977871</t>
+  </si>
+  <si>
+    <t>0.102563</t>
+  </si>
+  <si>
+    <t>0.0279833</t>
+  </si>
+  <si>
+    <t>0.0968271</t>
+  </si>
+  <si>
+    <t>0.101708</t>
+  </si>
+  <si>
+    <t>0.02795</t>
+  </si>
+  <si>
+    <t>0.0297</t>
+  </si>
+  <si>
+    <t>0.0959103</t>
+  </si>
+  <si>
+    <t>0.100892</t>
+  </si>
+  <si>
+    <t>0.0277333</t>
+  </si>
+  <si>
+    <t>0.0950312</t>
+  </si>
+  <si>
+    <t>0.100109</t>
+  </si>
+  <si>
+    <t>0.0275333</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.0941884</t>
+  </si>
+  <si>
+    <t>0.0993627</t>
+  </si>
+  <si>
+    <t>0.0273167</t>
+  </si>
+  <si>
+    <t>0.0288</t>
+  </si>
+  <si>
+    <t>0.0933779</t>
+  </si>
+  <si>
+    <t>0.09865</t>
+  </si>
+  <si>
+    <t>0.0286</t>
+  </si>
+  <si>
+    <t>0.0926012</t>
+  </si>
+  <si>
+    <t>0.0979617</t>
+  </si>
+  <si>
+    <t>0.0271</t>
+  </si>
+  <si>
+    <t>0.0918542</t>
+  </si>
+  <si>
+    <t>0.097296</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.0284</t>
+  </si>
+  <si>
+    <t>0.0911334</t>
+  </si>
+  <si>
+    <t>0.0966564</t>
+  </si>
+  <si>
+    <t>0.02675</t>
+  </si>
+  <si>
+    <t>0.0283</t>
+  </si>
+  <si>
+    <t>0.0904384</t>
+  </si>
+  <si>
+    <t>0.0960413</t>
+  </si>
+  <si>
+    <t>0.0265667</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.0897662</t>
+  </si>
+  <si>
+    <t>0.0954532</t>
+  </si>
+  <si>
+    <t>0.02635</t>
+  </si>
+  <si>
+    <t>0.0279</t>
+  </si>
+  <si>
+    <t>0.0891179</t>
+  </si>
+  <si>
+    <t>0.0948802</t>
+  </si>
+  <si>
+    <t>0.0261333</t>
+  </si>
+  <si>
+    <t>0.0884871</t>
+  </si>
+  <si>
+    <t>0.0943252</t>
+  </si>
+  <si>
+    <t>0.0259167</t>
+  </si>
+  <si>
+    <t>0.0278</t>
+  </si>
+  <si>
+    <t>0.0878776</t>
+  </si>
+  <si>
+    <t>0.0937903</t>
+  </si>
+  <si>
+    <t>0.0257667</t>
+  </si>
+  <si>
+    <t>0.0872868</t>
+  </si>
+  <si>
+    <t>0.0932718</t>
+  </si>
+  <si>
+    <t>0.0256</t>
+  </si>
+  <si>
+    <t>0.0867118</t>
+  </si>
+  <si>
+    <t>0.0927733</t>
+  </si>
+  <si>
+    <t>0.0255333</t>
+  </si>
+  <si>
+    <t>0.0861588</t>
+  </si>
+  <si>
+    <t>0.0922891</t>
+  </si>
+  <si>
+    <t>0.0276</t>
+  </si>
+  <si>
+    <t>0.0856194</t>
+  </si>
+  <si>
+    <t>0.0918177</t>
+  </si>
+  <si>
+    <t>0.0850943</t>
+  </si>
+  <si>
+    <t>0.0913586</t>
+  </si>
+  <si>
+    <t>0.0845823</t>
+  </si>
+  <si>
+    <t>0.0909121</t>
+  </si>
+  <si>
+    <t>0.02485</t>
+  </si>
+  <si>
+    <t>0.0840842</t>
+  </si>
+  <si>
+    <t>0.0904784</t>
+  </si>
+  <si>
+    <t>0.0247833</t>
+  </si>
+  <si>
+    <t>0.0835966</t>
+  </si>
+  <si>
+    <t>0.0900491</t>
+  </si>
+  <si>
+    <t>0.02475</t>
+  </si>
+  <si>
+    <t>0.0831212</t>
+  </si>
+  <si>
+    <t>0.0896376</t>
+  </si>
+  <si>
+    <t>0.0245833</t>
+  </si>
+  <si>
+    <t>0.0826571</t>
+  </si>
+  <si>
+    <t>0.0892367</t>
+  </si>
+  <si>
+    <t>0.0268</t>
+  </si>
+  <si>
+    <t>0.0821997</t>
+  </si>
+  <si>
+    <t>0.0888425</t>
+  </si>
+  <si>
+    <t>0.0243667</t>
+  </si>
+  <si>
+    <t>0.0266</t>
+  </si>
+  <si>
+    <t>0.0817521</t>
+  </si>
+  <si>
+    <t>0.0884567</t>
+  </si>
+  <si>
+    <t>0.0242167</t>
+  </si>
+  <si>
+    <t>0.0265</t>
+  </si>
+  <si>
+    <t>0.081314</t>
+  </si>
+  <si>
+    <t>0.0880795</t>
+  </si>
+  <si>
+    <t>0.0240667</t>
+  </si>
+  <si>
+    <t>0.0808844</t>
+  </si>
+  <si>
+    <t>0.0877113</t>
+  </si>
+  <si>
+    <t>0.0239833</t>
+  </si>
+  <si>
+    <t>0.0804645</t>
+  </si>
+  <si>
+    <t>0.0873439</t>
+  </si>
+  <si>
+    <t>0.0800508</t>
+  </si>
+  <si>
+    <t>0.0869891</t>
+  </si>
+  <si>
+    <t>0.0237833</t>
+  </si>
+  <si>
+    <t>0.0263</t>
+  </si>
+  <si>
+    <t>0.0796425</t>
+  </si>
+  <si>
+    <t>0.086636</t>
+  </si>
+  <si>
+    <t>0.02365</t>
+  </si>
+  <si>
+    <t>0.0262</t>
+  </si>
+  <si>
+    <t>0.079244</t>
+  </si>
+  <si>
+    <t>0.0862931</t>
+  </si>
+  <si>
+    <t>0.02355</t>
+  </si>
+  <si>
+    <t>0.0258</t>
+  </si>
+  <si>
+    <t>0.0788524</t>
+  </si>
+  <si>
+    <t>0.0859587</t>
+  </si>
+  <si>
+    <t>0.0784665</t>
+  </si>
+  <si>
+    <t>0.0856318</t>
+  </si>
+  <si>
+    <t>0.0232333</t>
+  </si>
+  <si>
+    <t>0.0780832</t>
+  </si>
+  <si>
+    <t>0.0853051</t>
+  </si>
+  <si>
+    <t>0.0231</t>
+  </si>
+  <si>
+    <t>0.0777107</t>
+  </si>
+  <si>
+    <t>0.0849931</t>
+  </si>
+  <si>
+    <t>0.0229667</t>
+  </si>
+  <si>
+    <t>0.0773437</t>
+  </si>
+  <si>
+    <t>0.0846861</t>
+  </si>
+  <si>
+    <t>0.0228333</t>
+  </si>
+  <si>
+    <t>0.0769822</t>
+  </si>
+  <si>
+    <t>0.0843848</t>
+  </si>
+  <si>
+    <t>0.0227833</t>
+  </si>
+  <si>
+    <t>0.0766267</t>
+  </si>
+  <si>
+    <t>0.084091</t>
+  </si>
+  <si>
+    <t>0.02265</t>
+  </si>
+  <si>
+    <t>0.0762738</t>
+  </si>
+  <si>
+    <t>0.0838017</t>
+  </si>
+  <si>
+    <t>0.0759247</t>
+  </si>
+  <si>
+    <t>0.0835127</t>
+  </si>
+  <si>
+    <t>0.0224167</t>
+  </si>
+  <si>
+    <t>0.0247</t>
+  </si>
+  <si>
+    <t>0.0755837</t>
+  </si>
+  <si>
+    <t>0.0832285</t>
+  </si>
+  <si>
+    <t>0.0222667</t>
+  </si>
+  <si>
+    <t>0.0752453</t>
+  </si>
+  <si>
+    <t>0.0829428</t>
+  </si>
+  <si>
+    <t>0.0221667</t>
+  </si>
+  <si>
+    <t>0.0749115</t>
+  </si>
+  <si>
+    <t>0.0826603</t>
+  </si>
+  <si>
+    <t>0.0221333</t>
+  </si>
+  <si>
+    <t>0.0745829</t>
+  </si>
+  <si>
+    <t>0.0823859</t>
+  </si>
+  <si>
+    <t>0.0220667</t>
+  </si>
+  <si>
+    <t>0.0742601</t>
+  </si>
+  <si>
+    <t>0.0821148</t>
+  </si>
+  <si>
+    <t>0.0219333</t>
+  </si>
+  <si>
+    <t>0.0248</t>
+  </si>
+  <si>
+    <t>0.0739373</t>
+  </si>
+  <si>
+    <t>0.0818456</t>
+  </si>
+  <si>
+    <t>0.0736217</t>
+  </si>
+  <si>
+    <t>0.0815846</t>
+  </si>
+  <si>
+    <t>0.02175</t>
+  </si>
+  <si>
+    <t>0.0733087</t>
+  </si>
+  <si>
+    <t>0.0813217</t>
+  </si>
+  <si>
+    <t>0.0216833</t>
+  </si>
+  <si>
+    <t>0.0730024</t>
+  </si>
+  <si>
+    <t>0.0810658</t>
+  </si>
+  <si>
+    <t>0.0214833</t>
+  </si>
+  <si>
+    <t>0.0727</t>
+  </si>
+  <si>
+    <t>0.0808153</t>
+  </si>
+  <si>
+    <t>0.0724006</t>
+  </si>
+  <si>
+    <t>0.0805671</t>
+  </si>
+  <si>
+    <t>0.0213667</t>
+  </si>
+  <si>
+    <t>0.0721059</t>
+  </si>
+  <si>
+    <t>0.08032</t>
+  </si>
+  <si>
+    <t>0.0213</t>
+  </si>
+  <si>
+    <t>0.0718131</t>
+  </si>
+  <si>
+    <t>0.0800741</t>
+  </si>
+  <si>
+    <t>0.0211833</t>
+  </si>
+  <si>
+    <t>0.0715233</t>
+  </si>
+  <si>
+    <t>0.0798315</t>
+  </si>
+  <si>
+    <t>0.0210667</t>
+  </si>
+  <si>
+    <t>0.0712392</t>
+  </si>
+  <si>
+    <t>0.0795965</t>
+  </si>
+  <si>
+    <t>0.0209833</t>
+  </si>
+  <si>
+    <t>0.0709554</t>
+  </si>
+  <si>
+    <t>0.07936</t>
+  </si>
+  <si>
+    <t>0.0209333</t>
+  </si>
+  <si>
+    <t>0.0706751</t>
+  </si>
+  <si>
+    <t>0.0791314</t>
+  </si>
+  <si>
+    <t>0.0208333</t>
+  </si>
+  <si>
+    <t>0.0703947</t>
+  </si>
+  <si>
+    <t>0.0788999</t>
+  </si>
+  <si>
+    <t>0.02075</t>
+  </si>
+  <si>
+    <t>0.0701188</t>
+  </si>
+  <si>
+    <t>0.0786735</t>
+  </si>
+  <si>
+    <t>0.0207</t>
+  </si>
+  <si>
+    <t>0.0239</t>
+  </si>
+  <si>
+    <t>0.0698472</t>
+  </si>
+  <si>
+    <t>0.078448</t>
+  </si>
+  <si>
+    <t>0.0207167</t>
+  </si>
+  <si>
+    <t>0.0695774</t>
+  </si>
+  <si>
+    <t>0.0782249</t>
+  </si>
+  <si>
+    <t>0.0205667</t>
+  </si>
+  <si>
+    <t>0.0693092</t>
+  </si>
+  <si>
+    <t>0.0780048</t>
+  </si>
+  <si>
+    <t>0.02055</t>
+  </si>
+  <si>
+    <t>0.0236</t>
+  </si>
+  <si>
+    <t>0.143295</t>
+  </si>
+  <si>
+    <t>0.128626</t>
+  </si>
+  <si>
+    <t>0.04525</t>
+  </si>
+  <si>
+    <t>0.0416</t>
+  </si>
+  <si>
+    <t>0.0747248</t>
+  </si>
+  <si>
+    <t>0.070217</t>
+  </si>
+  <si>
+    <t>0.0231167</t>
+  </si>
+  <si>
+    <t>0.0552667</t>
+  </si>
+  <si>
+    <t>0.054968</t>
+  </si>
+  <si>
+    <t>0.0170667</t>
+  </si>
+  <si>
+    <t>0.0440328</t>
+  </si>
+  <si>
+    <t>0.0467069</t>
+  </si>
+  <si>
+    <t>0.0136833</t>
+  </si>
+  <si>
+    <t>0.0153</t>
+  </si>
+  <si>
+    <t>0.0381435</t>
+  </si>
+  <si>
+    <t>0.0428583</t>
+  </si>
+  <si>
+    <t>0.0120833</t>
+  </si>
+  <si>
+    <t>0.0341092</t>
+  </si>
+  <si>
+    <t>0.0405134</t>
+  </si>
+  <si>
+    <t>0.0108167</t>
+  </si>
+  <si>
+    <t>0.0320467</t>
+  </si>
+  <si>
+    <t>0.0404478</t>
+  </si>
+  <si>
+    <t>0.0102833</t>
+  </si>
+  <si>
+    <t>0.0298258</t>
+  </si>
+  <si>
+    <t>0.0394113</t>
+  </si>
+  <si>
+    <t>0.00966667</t>
+  </si>
+  <si>
+    <t>0.0137</t>
+  </si>
+  <si>
+    <t>0.0265564</t>
+  </si>
+  <si>
+    <t>0.0385301</t>
+  </si>
+  <si>
+    <t>0.00845</t>
+  </si>
+  <si>
+    <t>0.0126</t>
+  </si>
+  <si>
+    <t>0.0253227</t>
+  </si>
+  <si>
+    <t>0.0387475</t>
+  </si>
+  <si>
+    <t>0.00816667</t>
+  </si>
+  <si>
+    <t>0.0238449</t>
+  </si>
+  <si>
+    <t>0.0387851</t>
+  </si>
+  <si>
+    <t>0.0133</t>
+  </si>
+  <si>
+    <t>0.0227616</t>
+  </si>
+  <si>
+    <t>0.0394458</t>
+  </si>
+  <si>
+    <t>0.0217745</t>
+  </si>
+  <si>
+    <t>0.0400365</t>
+  </si>
+  <si>
+    <t>0.0215118</t>
+  </si>
+  <si>
+    <t>0.0410432</t>
+  </si>
+  <si>
+    <t>0.00721667</t>
+  </si>
+  <si>
+    <t>0.0135</t>
+  </si>
+  <si>
+    <t>0.0205991</t>
+  </si>
+  <si>
+    <t>0.041959</t>
+  </si>
+  <si>
+    <t>0.00688333</t>
+  </si>
+  <si>
+    <t>0.0138</t>
+  </si>
+  <si>
+    <t>0.020802</t>
+  </si>
+  <si>
+    <t>0.0435933</t>
+  </si>
+  <si>
+    <t>0.00706667</t>
+  </si>
+  <si>
+    <t>0.0209272</t>
+  </si>
+  <si>
+    <t>0.0446399</t>
+  </si>
+  <si>
+    <t>0.0201751</t>
+  </si>
+  <si>
+    <t>0.0454609</t>
+  </si>
+  <si>
+    <t>0.0186773</t>
+  </si>
+  <si>
+    <t>0.0462754</t>
+  </si>
+  <si>
+    <t>0.0189306</t>
+  </si>
+  <si>
+    <t>0.0477214</t>
+  </si>
+  <si>
+    <t>0.0066</t>
+  </si>
+  <si>
+    <t>0.0145</t>
+  </si>
+  <si>
+    <t>0.0193504</t>
+  </si>
+  <si>
+    <t>0.049801</t>
+  </si>
+  <si>
+    <t>0.0146</t>
+  </si>
+  <si>
+    <t>0.0181194</t>
+  </si>
+  <si>
+    <t>0.0501512</t>
+  </si>
+  <si>
+    <t>0.00625</t>
+  </si>
+  <si>
+    <t>0.0179269</t>
+  </si>
+  <si>
+    <t>0.0516711</t>
+  </si>
+  <si>
+    <t>0.00646667</t>
+  </si>
+  <si>
+    <t>0.0166941</t>
+  </si>
+  <si>
+    <t>0.0517501</t>
+  </si>
+  <si>
+    <t>0.00598333</t>
+  </si>
+  <si>
+    <t>0.0152275</t>
+  </si>
+  <si>
+    <t>0.0515957</t>
+  </si>
+  <si>
+    <t>0.00555</t>
+  </si>
+  <si>
+    <t>0.0144</t>
+  </si>
+  <si>
+    <t>0.0139754</t>
+  </si>
+  <si>
+    <t>0.0516405</t>
+  </si>
+  <si>
+    <t>0.00483333</t>
+  </si>
+  <si>
+    <t>0.0131038</t>
+  </si>
+  <si>
+    <t>0.0523911</t>
+  </si>
+  <si>
+    <t>0.0046</t>
+  </si>
+  <si>
+    <t>0.0115096</t>
+  </si>
+  <si>
+    <t>0.0520612</t>
+  </si>
+  <si>
+    <t>0.00396667</t>
+  </si>
+  <si>
+    <t>0.0099078</t>
+  </si>
+  <si>
+    <t>0.0518415</t>
+  </si>
+  <si>
+    <t>0.00338333</t>
+  </si>
+  <si>
+    <t>0.00799831</t>
+  </si>
+  <si>
+    <t>0.0507591</t>
+  </si>
+  <si>
+    <t>0.00258333</t>
+  </si>
+  <si>
+    <t>0.0131</t>
+  </si>
+  <si>
+    <t>0.00636205</t>
+  </si>
+  <si>
+    <t>0.0496292</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.0124</t>
+  </si>
+  <si>
+    <t>0.00541191</t>
+  </si>
+  <si>
+    <t>0.0494736</t>
+  </si>
+  <si>
+    <t>0.00166667</t>
+  </si>
+  <si>
+    <t>0.00488605</t>
+  </si>
+  <si>
+    <t>0.0492143</t>
+  </si>
+  <si>
+    <t>0.00148333</t>
+  </si>
+  <si>
+    <t>0.0119</t>
+  </si>
+  <si>
+    <t>0.00440172</t>
+  </si>
+  <si>
+    <t>0.0492574</t>
+  </si>
+  <si>
+    <t>0.00125</t>
+  </si>
+  <si>
+    <t>0.0117</t>
+  </si>
+  <si>
+    <t>0.00395034</t>
+  </si>
+  <si>
+    <t>0.0493395</t>
+  </si>
+  <si>
+    <t>0.00105</t>
+  </si>
+  <si>
+    <t>0.00363892</t>
+  </si>
+  <si>
+    <t>0.0493416</t>
+  </si>
+  <si>
+    <t>0.000966667</t>
+  </si>
+  <si>
+    <t>0.00334185</t>
+  </si>
+  <si>
+    <t>0.0495248</t>
+  </si>
+  <si>
+    <t>0.000866667</t>
+  </si>
+  <si>
+    <t>0.00309069</t>
+  </si>
+  <si>
+    <t>0.0496547</t>
+  </si>
+  <si>
+    <t>0.0008</t>
+  </si>
+  <si>
+    <t>0.0115</t>
+  </si>
+  <si>
+    <t>0.00283664</t>
+  </si>
+  <si>
+    <t>0.0497446</t>
+  </si>
+  <si>
+    <t>0.0116</t>
+  </si>
+  <si>
+    <t>0.00262573</t>
+  </si>
+  <si>
+    <t>0.0499103</t>
+  </si>
+  <si>
+    <t>0.00243931</t>
+  </si>
+  <si>
+    <t>0.0499948</t>
+  </si>
+  <si>
+    <t>0.00226985</t>
+  </si>
+  <si>
+    <t>0.0502274</t>
+  </si>
+  <si>
+    <t>0.00212645</t>
+  </si>
+  <si>
+    <t>0.0503537</t>
+  </si>
+  <si>
+    <t>0.000366667</t>
+  </si>
+  <si>
+    <t>0.00199561</t>
+  </si>
+  <si>
+    <t>0.0505693</t>
+  </si>
+  <si>
+    <t>0.00186168</t>
+  </si>
+  <si>
+    <t>0.0507729</t>
+  </si>
+  <si>
+    <t>0.00173973</t>
+  </si>
+  <si>
+    <t>0.0509997</t>
+  </si>
+  <si>
+    <t>0.00162372</t>
+  </si>
+  <si>
+    <t>0.0511597</t>
+  </si>
+  <si>
+    <t>0.00153298</t>
+  </si>
+  <si>
+    <t>0.0513813</t>
+  </si>
+  <si>
+    <t>0.00143957</t>
+  </si>
+  <si>
+    <t>0.0516161</t>
+  </si>
+  <si>
+    <t>0.00135392</t>
+  </si>
+  <si>
+    <t>0.0517755</t>
+  </si>
+  <si>
+    <t>0.00129272</t>
+  </si>
+  <si>
+    <t>0.0520578</t>
+  </si>
+  <si>
+    <t>0.00121682</t>
+  </si>
+  <si>
+    <t>0.0521762</t>
+  </si>
+  <si>
+    <t>0.00115042</t>
+  </si>
+  <si>
+    <t>0.0523529</t>
+  </si>
+  <si>
+    <t>0.00109448</t>
+  </si>
+  <si>
+    <t>0.0525206</t>
+  </si>
+  <si>
+    <t>0.00103746</t>
+  </si>
+  <si>
+    <t>0.0527391</t>
+  </si>
+  <si>
+    <t>0.000986161</t>
+  </si>
+  <si>
+    <t>0.0528787</t>
+  </si>
+  <si>
+    <t>0.000935495</t>
+  </si>
+  <si>
+    <t>0.0530519</t>
+  </si>
+  <si>
+    <t>0.000895381</t>
+  </si>
+  <si>
+    <t>0.0532221</t>
+  </si>
+  <si>
+    <t>0.000850764</t>
+  </si>
+  <si>
+    <t>0.0533585</t>
+  </si>
+  <si>
+    <t>0.0112</t>
+  </si>
+  <si>
+    <t>0.000815719</t>
+  </si>
+  <si>
+    <t>0.0535919</t>
+  </si>
+  <si>
+    <t>0.00077636</t>
+  </si>
+  <si>
+    <t>0.0536761</t>
+  </si>
+  <si>
+    <t>0.000746666</t>
+  </si>
+  <si>
+    <t>0.0538204</t>
+  </si>
+  <si>
+    <t>0.00071541</t>
+  </si>
+  <si>
+    <t>0.0539738</t>
+  </si>
+  <si>
+    <t>0.000685926</t>
+  </si>
+  <si>
+    <t>0.0540991</t>
+  </si>
+  <si>
+    <t>0.000661654</t>
+  </si>
+  <si>
+    <t>0.0542432</t>
+  </si>
+  <si>
+    <t>0.000635189</t>
+  </si>
+  <si>
+    <t>0.0543637</t>
+  </si>
+  <si>
+    <t>0.123029</t>
+  </si>
+  <si>
+    <t>0.121712</t>
+  </si>
+  <si>
+    <t>0.0731283</t>
+  </si>
+  <si>
+    <t>0.0796316</t>
+  </si>
+  <si>
+    <t>0.0635997</t>
+  </si>
+  <si>
+    <t>0.0751806</t>
+  </si>
+  <si>
+    <t>0.0186833</t>
+  </si>
+  <si>
+    <t>0.0543684</t>
+  </si>
+  <si>
+    <t>0.0702123</t>
+  </si>
+  <si>
+    <t>0.0211</t>
+  </si>
+  <si>
+    <t>0.0489938</t>
+  </si>
+  <si>
+    <t>0.066821</t>
+  </si>
+  <si>
+    <t>0.0145167</t>
+  </si>
+  <si>
+    <t>0.0202</t>
+  </si>
+  <si>
+    <t>0.0439901</t>
+  </si>
+  <si>
+    <t>0.01325</t>
+  </si>
+  <si>
+    <t>0.0199</t>
+  </si>
+  <si>
+    <t>0.038788</t>
+  </si>
+  <si>
+    <t>0.06323</t>
+  </si>
+  <si>
+    <t>0.01185</t>
+  </si>
+  <si>
+    <t>0.0345904</t>
+  </si>
+  <si>
+    <t>0.0609059</t>
+  </si>
+  <si>
+    <t>0.0104167</t>
+  </si>
+  <si>
+    <t>0.0186</t>
+  </si>
+  <si>
+    <t>0.0310478</t>
+  </si>
+  <si>
+    <t>0.0597521</t>
+  </si>
+  <si>
+    <t>0.0187</t>
+  </si>
+  <si>
+    <t>0.0258585</t>
+  </si>
+  <si>
+    <t>0.0557952</t>
+  </si>
+  <si>
+    <t>0.00756667</t>
+  </si>
+  <si>
+    <t>0.0230347</t>
+  </si>
+  <si>
+    <t>0.0566847</t>
+  </si>
+  <si>
+    <t>0.00673333</t>
+  </si>
+  <si>
+    <t>0.0174</t>
+  </si>
+  <si>
+    <t>0.0211379</t>
+  </si>
+  <si>
+    <t>0.0565907</t>
+  </si>
+  <si>
+    <t>0.00621667</t>
+  </si>
+  <si>
+    <t>0.0186763</t>
+  </si>
+  <si>
+    <t>0.0557239</t>
+  </si>
+  <si>
+    <t>0.00511667</t>
+  </si>
+  <si>
+    <t>0.0169</t>
+  </si>
+  <si>
+    <t>0.0175541</t>
+  </si>
+  <si>
+    <t>0.0561126</t>
+  </si>
+  <si>
+    <t>0.0172</t>
+  </si>
+  <si>
+    <t>0.0152645</t>
+  </si>
+  <si>
+    <t>0.0563501</t>
+  </si>
+  <si>
+    <t>0.00411667</t>
+  </si>
+  <si>
+    <t>0.0137891</t>
+  </si>
+  <si>
+    <t>0.0560936</t>
+  </si>
+  <si>
+    <t>0.0036</t>
+  </si>
+  <si>
+    <t>0.0163</t>
+  </si>
+  <si>
+    <t>0.0127401</t>
+  </si>
+  <si>
+    <t>0.056001</t>
+  </si>
+  <si>
+    <t>0.0118588</t>
+  </si>
+  <si>
+    <t>0.0556351</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.0106745</t>
+  </si>
+  <si>
+    <t>0.0553216</t>
+  </si>
+  <si>
+    <t>0.00268333</t>
+  </si>
+  <si>
+    <t>0.00954321</t>
+  </si>
+  <si>
+    <t>0.0550208</t>
+  </si>
+  <si>
+    <t>0.00880707</t>
+  </si>
+  <si>
+    <t>0.0544388</t>
+  </si>
+  <si>
+    <t>0.0021</t>
+  </si>
+  <si>
+    <t>0.00819205</t>
+  </si>
+  <si>
+    <t>0.0546377</t>
+  </si>
+  <si>
+    <t>0.00195</t>
+  </si>
+  <si>
+    <t>0.00761969</t>
+  </si>
+  <si>
+    <t>0.0547909</t>
+  </si>
+  <si>
+    <t>0.00178333</t>
+  </si>
+  <si>
+    <t>0.00707604</t>
+  </si>
+  <si>
+    <t>0.0546372</t>
+  </si>
+  <si>
+    <t>0.00662763</t>
+  </si>
+  <si>
+    <t>0.054768</t>
+  </si>
+  <si>
+    <t>0.0015</t>
+  </si>
+  <si>
+    <t>0.0155</t>
+  </si>
+  <si>
+    <t>0.00620498</t>
+  </si>
+  <si>
+    <t>0.0551384</t>
+  </si>
+  <si>
+    <t>0.00133333</t>
+  </si>
+  <si>
+    <t>0.00592394</t>
+  </si>
+  <si>
+    <t>0.0551881</t>
+  </si>
+  <si>
+    <t>0.00118333</t>
+  </si>
+  <si>
+    <t>0.00574575</t>
+  </si>
+  <si>
+    <t>0.0555974</t>
+  </si>
+  <si>
+    <t>0.00586514</t>
+  </si>
+  <si>
+    <t>0.056364</t>
+  </si>
+  <si>
+    <t>0.00572704</t>
+  </si>
+  <si>
+    <t>0.0566736</t>
+  </si>
+  <si>
+    <t>0.00113333</t>
+  </si>
+  <si>
+    <t>0.00510278</t>
+  </si>
+  <si>
+    <t>0.0561593</t>
+  </si>
+  <si>
+    <t>0.00095</t>
+  </si>
+  <si>
+    <t>0.00469775</t>
+  </si>
+  <si>
+    <t>0.055827</t>
+  </si>
+  <si>
+    <t>0.00440369</t>
+  </si>
+  <si>
+    <t>0.0558025</t>
+  </si>
+  <si>
+    <t>0.000733333</t>
+  </si>
+  <si>
+    <t>0.00419157</t>
+  </si>
+  <si>
+    <t>0.055718</t>
+  </si>
+  <si>
+    <t>0.0007</t>
+  </si>
+  <si>
+    <t>0.00395498</t>
+  </si>
+  <si>
+    <t>0.055668</t>
+  </si>
+  <si>
+    <t>0.000616667</t>
+  </si>
+  <si>
+    <t>0.00381762</t>
+  </si>
+  <si>
+    <t>0.0557487</t>
+  </si>
+  <si>
+    <t>0.0006</t>
+  </si>
+  <si>
+    <t>0.00364854</t>
+  </si>
+  <si>
+    <t>0.0557288</t>
+  </si>
+  <si>
+    <t>0.00354038</t>
+  </si>
+  <si>
+    <t>0.0558381</t>
+  </si>
+  <si>
+    <t>0.0033856</t>
+  </si>
+  <si>
+    <t>0.0557845</t>
+  </si>
+  <si>
+    <t>0.00326223</t>
+  </si>
+  <si>
+    <t>0.0558484</t>
+  </si>
+  <si>
+    <t>0.00311477</t>
+  </si>
+  <si>
+    <t>0.0558538</t>
+  </si>
+  <si>
+    <t>0.00296023</t>
+  </si>
+  <si>
+    <t>0.0559666</t>
+  </si>
+  <si>
+    <t>0.00283188</t>
+  </si>
+  <si>
+    <t>0.0559716</t>
+  </si>
+  <si>
+    <t>0.000416667</t>
+  </si>
+  <si>
+    <t>0.00278929</t>
+  </si>
+  <si>
+    <t>0.0559221</t>
+  </si>
+  <si>
+    <t>0.00257553</t>
+  </si>
+  <si>
+    <t>0.0560514</t>
+  </si>
+  <si>
+    <t>0.00273996</t>
+  </si>
+  <si>
+    <t>0.0569569</t>
+  </si>
+  <si>
+    <t>0.00231072</t>
+  </si>
+  <si>
+    <t>0.0559972</t>
+  </si>
+  <si>
+    <t>0.00221119</t>
+  </si>
+  <si>
+    <t>0.0560578</t>
+  </si>
+  <si>
+    <t>0.00213183</t>
+  </si>
+  <si>
+    <t>0.0561887</t>
+  </si>
+  <si>
+    <t>0.00212828</t>
+  </si>
+  <si>
+    <t>0.0563809</t>
+  </si>
+  <si>
+    <t>0.00211412</t>
+  </si>
+  <si>
+    <t>0.0565323</t>
+  </si>
+  <si>
+    <t>0.00219519</t>
+  </si>
+  <si>
+    <t>0.0566057</t>
+  </si>
+  <si>
+    <t>0.00230487</t>
+  </si>
+  <si>
+    <t>0.0570469</t>
+  </si>
+  <si>
+    <t>0.00244171</t>
+  </si>
+  <si>
+    <t>0.0575498</t>
+  </si>
+  <si>
+    <t>0.00266627</t>
+  </si>
+  <si>
+    <t>0.0582909</t>
+  </si>
+  <si>
+    <t>0.00045</t>
+  </si>
+  <si>
+    <t>0.00290528</t>
+  </si>
+  <si>
+    <t>0.0588242</t>
+  </si>
+  <si>
+    <t>0.000516667</t>
+  </si>
+  <si>
+    <t>0.00222815</t>
+  </si>
+  <si>
+    <t>0.0583943</t>
+  </si>
+  <si>
+    <t>0.00194167</t>
+  </si>
+  <si>
+    <t>0.0581607</t>
+  </si>
+  <si>
+    <t>0.0017425</t>
+  </si>
+  <si>
+    <t>0.0582116</t>
+  </si>
+  <si>
+    <t>0.00166733</t>
+  </si>
+  <si>
+    <t>0.0582839</t>
+  </si>
+  <si>
+    <t>0.00157243</t>
+  </si>
+  <si>
+    <t>0.0583536</t>
+  </si>
+  <si>
+    <t>0.00152502</t>
+  </si>
+  <si>
+    <t>0.0584957</t>
+  </si>
+  <si>
+    <t>0.00143802</t>
+  </si>
+  <si>
+    <t>0.0585865</t>
+  </si>
+  <si>
+    <t>0.0014033</t>
+  </si>
+  <si>
+    <t>0.058676</t>
+  </si>
+  <si>
+    <t>0.00134112</t>
+  </si>
+  <si>
+    <t>0.0588017</t>
+  </si>
+  <si>
+    <t>0.00130718</t>
+  </si>
+  <si>
+    <t>0.0588799</t>
+  </si>
+  <si>
+    <t>0.00125904</t>
+  </si>
+  <si>
+    <t>0.0589706</t>
+  </si>
+  <si>
+    <t>0.0012292</t>
+  </si>
+  <si>
+    <t>0.0591104</t>
+  </si>
+  <si>
+    <t>0.00118547</t>
+  </si>
+  <si>
+    <t>0.0591623</t>
+  </si>
+  <si>
+    <t>0.00115223</t>
+  </si>
+  <si>
+    <t>0.0593044</t>
+  </si>
+  <si>
+    <t>0.00112742</t>
+  </si>
+  <si>
+    <t>0.0594064</t>
+  </si>
+  <si>
+    <t>0.00109269</t>
+  </si>
+  <si>
+    <t>0.0595163</t>
+  </si>
+  <si>
+    <t>0.00106833</t>
+  </si>
+  <si>
+    <t>0.0595896</t>
+  </si>
+  <si>
+    <t>0.0010475</t>
+  </si>
+  <si>
+    <t>0.059683</t>
+  </si>
+  <si>
+    <t>0.0152</t>
+  </si>
+  <si>
+    <t>0.00102072</t>
+  </si>
+  <si>
+    <t>0.0597878</t>
+  </si>
+  <si>
+    <t>0.000999335</t>
+  </si>
+  <si>
+    <t>0.0599435</t>
+  </si>
+  <si>
+    <t>0.000981708</t>
+  </si>
+  <si>
+    <t>0.0600424</t>
+  </si>
+  <si>
+    <t>0.000954544</t>
+  </si>
+  <si>
+    <t>0.0601146</t>
+  </si>
+  <si>
+    <t>0.0151</t>
+  </si>
+  <si>
+    <t>0.000939441</t>
+  </si>
+  <si>
+    <t>0.0602145</t>
+  </si>
+  <si>
+    <t>0.000914969</t>
+  </si>
+  <si>
+    <t>0.0603169</t>
+  </si>
+  <si>
+    <t>0.000902782</t>
+  </si>
+  <si>
+    <t>0.0604236</t>
+  </si>
+  <si>
+    <t>0.000878497</t>
+  </si>
+  <si>
+    <t>0.0604631</t>
+  </si>
+  <si>
+    <t>0.000867705</t>
+  </si>
+  <si>
+    <t>0.0605627</t>
+  </si>
+  <si>
+    <t>0.000848182</t>
+  </si>
+  <si>
+    <t>0.06068</t>
+  </si>
+  <si>
+    <t>0.000827704</t>
+  </si>
+  <si>
+    <t>0.0607378</t>
+  </si>
+  <si>
+    <t>0.000816701</t>
+  </si>
+  <si>
+    <t>0.0608531</t>
+  </si>
+  <si>
+    <t>0.000796946</t>
+  </si>
+  <si>
+    <t>0.060946</t>
+  </si>
+  <si>
+    <t>0.000785091</t>
+  </si>
+  <si>
+    <t>0.0609921</t>
+  </si>
+  <si>
+    <t>0.000770124</t>
+  </si>
+  <si>
+    <t>0.0610929</t>
+  </si>
+  <si>
+    <t>0.00075432</t>
+  </si>
+  <si>
+    <t>0.0611842</t>
+  </si>
+  <si>
+    <t>0.000743718</t>
+  </si>
+  <si>
+    <t>0.0612797</t>
+  </si>
+  <si>
+    <t>0.000727481</t>
+  </si>
+  <si>
+    <t>0.0613439</t>
+  </si>
+  <si>
+    <t>0.000719444</t>
+  </si>
+  <si>
+    <t>0.0614512</t>
+  </si>
+  <si>
+    <t>0.000703759</t>
+  </si>
+  <si>
+    <t>0.0615532</t>
+  </si>
+  <si>
+    <t>0.000690619</t>
+  </si>
+  <si>
+    <t>0.0616413</t>
+  </si>
+  <si>
+    <t>0.000679697</t>
+  </si>
+  <si>
+    <t>0.0617052</t>
+  </si>
+  <si>
+    <t>0.000670304</t>
+  </si>
+  <si>
+    <t>0.0618069</t>
+  </si>
+  <si>
+    <t>0.00065584</t>
+  </si>
+  <si>
+    <t>0.0618471</t>
+  </si>
+  <si>
+    <t>0.000644703</t>
+  </si>
+  <si>
+    <t>0.0619478</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.000634411</t>
+  </si>
+  <si>
+    <t>0.0620024</t>
+  </si>
+  <si>
+    <t>0.00062434</t>
+  </si>
+  <si>
+    <t>0.062096</t>
+  </si>
+  <si>
+    <t>0.000615824</t>
+  </si>
+  <si>
+    <t>0.0621909</t>
+  </si>
+  <si>
+    <t>0.000605597</t>
+  </si>
+  <si>
+    <t>0.0622551</t>
+  </si>
+  <si>
+    <t>0.000596684</t>
+  </si>
+  <si>
+    <t>0.0623578</t>
+  </si>
+  <si>
+    <t>0.000588016</t>
+  </si>
+  <si>
+    <t>0.0624116</t>
+  </si>
+  <si>
+    <t>0.000578195</t>
+  </si>
+  <si>
+    <t>0.0624919</t>
+  </si>
+  <si>
+    <t>0.000571225</t>
+  </si>
+  <si>
+    <t>0.0625685</t>
+  </si>
+  <si>
+    <t>0.000562779</t>
+  </si>
+  <si>
+    <t>0.0626364</t>
+  </si>
+  <si>
+    <t>0.000555701</t>
+  </si>
+  <si>
+    <t>0.0626937</t>
+  </si>
+  <si>
+    <t>0.000549906</t>
+  </si>
+  <si>
+    <t>0.0627869</t>
+  </si>
+  <si>
+    <t>0.000541644</t>
+  </si>
+  <si>
+    <t>0.0628674</t>
+  </si>
+  <si>
+    <t>0.000536062</t>
+  </si>
+  <si>
+    <t>0.062922</t>
+  </si>
+  <si>
+    <t>0.000529475</t>
+  </si>
+  <si>
+    <t>0.0630288</t>
+  </si>
+  <si>
+    <t>0.000522304</t>
+  </si>
+  <si>
+    <t>0.0630962</t>
+  </si>
+  <si>
+    <t>0.000513921</t>
+  </si>
+  <si>
+    <t>0.0632088</t>
+  </si>
+  <si>
+    <t>0.000506867</t>
+  </si>
+  <si>
+    <t>0.0632466</t>
+  </si>
+  <si>
+    <t>0.000498902</t>
+  </si>
+  <si>
+    <t>0.0633348</t>
+  </si>
+  <si>
+    <t>0.000492347</t>
+  </si>
+  <si>
+    <t>0.0633487</t>
+  </si>
+  <si>
+    <t>0.000485654</t>
+  </si>
+  <si>
+    <t>0.0634986</t>
+  </si>
+  <si>
+    <t>0.000478945</t>
+  </si>
+  <si>
+    <t>0.0634979</t>
+  </si>
+  <si>
+    <t>0.000472791</t>
+  </si>
+  <si>
+    <t>0.0636035</t>
+  </si>
+  <si>
+    <t>0.000465991</t>
+  </si>
+  <si>
+    <t>0.0636197</t>
+  </si>
+  <si>
+    <t>0.000460513</t>
+  </si>
+  <si>
+    <t>0.0636923</t>
+  </si>
+  <si>
+    <t>0.0148</t>
+  </si>
+  <si>
+    <t>0.000453708</t>
+  </si>
+  <si>
+    <t>0.063712</t>
+  </si>
+  <si>
+    <t>0.000448913</t>
+  </si>
+  <si>
+    <t>0.0637945</t>
+  </si>
+  <si>
+    <t>0.000442777</t>
+  </si>
+  <si>
+    <t>0.0638265</t>
+  </si>
+  <si>
+    <t>0.000438538</t>
+  </si>
+  <si>
+    <t>0.0639017</t>
+  </si>
+  <si>
+    <t>0.00043251</t>
+  </si>
+  <si>
+    <t>0.0639117</t>
+  </si>
+  <si>
+    <t>0.00042771</t>
+  </si>
+  <si>
+    <t>0.0639606</t>
+  </si>
+  <si>
+    <t>0.000422627</t>
+  </si>
+  <si>
+    <t>0.0639907</t>
+  </si>
+  <si>
+    <t>0.000418681</t>
+  </si>
+  <si>
+    <t>0.0640734</t>
+  </si>
+  <si>
+    <t>0.000413026</t>
+  </si>
+  <si>
+    <t>0.0640736</t>
+  </si>
+  <si>
+    <t>0.000409607</t>
+  </si>
+  <si>
+    <t>0.0641422</t>
+  </si>
+  <si>
+    <t>0.000404016</t>
+  </si>
+  <si>
+    <t>0.0641508</t>
+  </si>
+  <si>
+    <t>0.00040039</t>
+  </si>
+  <si>
+    <t>0.0641983</t>
+  </si>
+  <si>
+    <t>0.000395862</t>
+  </si>
+  <si>
+    <t>0.0642365</t>
+  </si>
+  <si>
+    <t>0.000392294</t>
+  </si>
+  <si>
+    <t>0.0643025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4554,14 +7055,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4839,8 +7380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E101"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6564,6 +9105,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6571,8 +9113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView showRuler="0" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8296,6 +10838,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8303,8 +10846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView showRuler="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9425,7 +11968,7 @@
         <v>898</v>
       </c>
       <c r="D66" s="1">
-        <v>8.3333300000000001</v>
+        <v>8.3333300000000004E-5</v>
       </c>
       <c r="E66" t="s">
         <v>866</v>
@@ -9442,7 +11985,7 @@
         <v>900</v>
       </c>
       <c r="D67" s="1">
-        <v>6.6666699999999999</v>
+        <v>6.6666699999999996E-5</v>
       </c>
       <c r="E67" t="s">
         <v>866</v>
@@ -9510,7 +12053,7 @@
         <v>908</v>
       </c>
       <c r="D71" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E71" t="s">
         <v>866</v>
@@ -9527,7 +12070,7 @@
         <v>910</v>
       </c>
       <c r="D72" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E72" t="s">
         <v>873</v>
@@ -9544,7 +12087,7 @@
         <v>912</v>
       </c>
       <c r="D73" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E73" t="s">
         <v>893</v>
@@ -9561,7 +12104,7 @@
         <v>914</v>
       </c>
       <c r="D74" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E74" t="s">
         <v>873</v>
@@ -9578,7 +12121,7 @@
         <v>916</v>
       </c>
       <c r="D75" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E75" t="s">
         <v>866</v>
@@ -10035,8 +12578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView showRuler="0" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11765,10 +14308,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11788,6 +14331,1706 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D22" t="s">
+        <v>439</v>
+      </c>
+      <c r="E22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E24" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D26" t="s">
+        <v>380</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E41" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D44" t="s">
+        <v>686</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D55" t="s">
+        <v>736</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D57" t="s">
+        <v>748</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E60" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D62" t="s">
+        <v>769</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E71" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E72" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E73" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E74" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E75" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E76" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E77" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D78" t="s">
+        <v>848</v>
+      </c>
+      <c r="E78" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E80" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E81" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E83" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D85" t="s">
+        <v>893</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E87" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D89" t="s">
+        <v>694</v>
+      </c>
+      <c r="E89" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E90" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E93" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E94" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E95" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E96" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E97" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E100" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1828</v>
       </c>
     </row>
   </sheetData>
@@ -11799,7 +16042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -12988,10 +17231,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showRuler="0" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13013,6 +17256,1128 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D13" t="s">
+        <v>735</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D18" t="s">
+        <v>636</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D19" t="s">
+        <v>650</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D20" t="s">
+        <v>665</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E33" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E37" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E41" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D42" t="s">
+        <v>843</v>
+      </c>
+      <c r="E42" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D45" t="s">
+        <v>854</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D47" t="s">
+        <v>858</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D48" t="s">
+        <v>862</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D49" t="s">
+        <v>872</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D51" t="s">
+        <v>882</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D52" t="s">
+        <v>887</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D53" t="s">
+        <v>892</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E55" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13020,10 +18385,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13045,7 +18410,2348 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D10" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D21" t="s">
+        <v>797</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E27" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D29" t="s">
+        <v>824</v>
+      </c>
+      <c r="E29" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E30" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E31" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>835</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>839</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>839</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>843</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>851</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>865</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>865</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>862</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>865</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D52" t="s">
+        <v>869</v>
+      </c>
+      <c r="E52" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>865</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D54" t="s">
+        <v>862</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>858</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D58" t="s">
+        <v>865</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>892</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>892</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D63" t="s">
+        <v>892</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8.3333300000000001</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D65" t="s">
+        <v>896</v>
+      </c>
+      <c r="E65" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D66" s="1">
+        <v>8.3333300000000001</v>
+      </c>
+      <c r="E66" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D67" s="1">
+        <v>8.3333300000000001</v>
+      </c>
+      <c r="E67" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D68" s="1">
+        <v>8.3333300000000001</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D69" s="1">
+        <v>8.3333300000000001</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E72" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E73" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E74" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E87" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E88" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E89" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="soft1" sheetId="1" r:id="rId1"/>
@@ -10847,7 +10847,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14310,7 +14310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A83" workbookViewId="0">
       <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
@@ -16042,8 +16042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showRuler="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16946,7 +16946,7 @@
         <v>1464</v>
       </c>
       <c r="D53" s="1">
-        <v>6.6666699999999999</v>
+        <v>6.6666699999999996E-5</v>
       </c>
       <c r="E53" t="s">
         <v>1413</v>
@@ -16963,7 +16963,7 @@
         <v>1466</v>
       </c>
       <c r="D54" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E54" t="s">
         <v>1420</v>
@@ -16980,7 +16980,7 @@
         <v>1468</v>
       </c>
       <c r="D55" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E55" t="s">
         <v>1442</v>
@@ -16997,7 +16997,7 @@
         <v>1470</v>
       </c>
       <c r="D56" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E56" t="s">
         <v>1420</v>
@@ -17014,7 +17014,7 @@
         <v>1472</v>
       </c>
       <c r="D57" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E57" t="s">
         <v>1442</v>
@@ -17031,7 +17031,7 @@
         <v>1474</v>
       </c>
       <c r="D58" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E58" t="s">
         <v>1413</v>
@@ -17048,7 +17048,7 @@
         <v>1476</v>
       </c>
       <c r="D59" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E59" t="s">
         <v>1413</v>
@@ -17065,7 +17065,7 @@
         <v>1478</v>
       </c>
       <c r="D60" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E60" t="s">
         <v>1413</v>
@@ -17082,7 +17082,7 @@
         <v>1480</v>
       </c>
       <c r="D61" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E61" t="s">
         <v>1413</v>
@@ -17099,7 +17099,7 @@
         <v>1482</v>
       </c>
       <c r="D62" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E62" t="s">
         <v>1442</v>
@@ -17116,7 +17116,7 @@
         <v>1484</v>
       </c>
       <c r="D63" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E63" t="s">
         <v>1420</v>
@@ -17133,7 +17133,7 @@
         <v>1486</v>
       </c>
       <c r="D64" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E64" t="s">
         <v>1413</v>
@@ -17150,7 +17150,7 @@
         <v>1488</v>
       </c>
       <c r="D65" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E65" t="s">
         <v>1420</v>
@@ -17167,7 +17167,7 @@
         <v>1490</v>
       </c>
       <c r="D66" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E66" t="s">
         <v>1420</v>
@@ -17184,7 +17184,7 @@
         <v>1492</v>
       </c>
       <c r="D67" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E67" t="s">
         <v>1420</v>
@@ -17233,8 +17233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E68"/>
+    <sheetView showRuler="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18151,7 +18151,7 @@
         <v>1982</v>
       </c>
       <c r="D54" s="1">
-        <v>6.6666699999999999</v>
+        <v>6.6666699999999996E-5</v>
       </c>
       <c r="E54" t="s">
         <v>1240</v>
@@ -18168,7 +18168,7 @@
         <v>1984</v>
       </c>
       <c r="D55" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E55" t="s">
         <v>563</v>
@@ -18185,7 +18185,7 @@
         <v>1986</v>
       </c>
       <c r="D56" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E56" t="s">
         <v>1950</v>
@@ -18202,7 +18202,7 @@
         <v>1988</v>
       </c>
       <c r="D57" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E57" t="s">
         <v>1950</v>
@@ -18387,8 +18387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19509,7 +19509,7 @@
         <v>2176</v>
       </c>
       <c r="D66" s="1">
-        <v>8.3333300000000001</v>
+        <v>8.3333300000000004E-5</v>
       </c>
       <c r="E66" t="s">
         <v>706</v>
@@ -19526,7 +19526,7 @@
         <v>2178</v>
       </c>
       <c r="D67" s="1">
-        <v>8.3333300000000001</v>
+        <v>8.3333300000000004E-5</v>
       </c>
       <c r="E67" t="s">
         <v>706</v>
@@ -19543,7 +19543,7 @@
         <v>2180</v>
       </c>
       <c r="D68" s="1">
-        <v>8.3333300000000001</v>
+        <v>8.3333300000000004E-5</v>
       </c>
       <c r="E68" t="s">
         <v>2085</v>
@@ -19560,7 +19560,7 @@
         <v>2182</v>
       </c>
       <c r="D69" s="1">
-        <v>8.3333300000000001</v>
+        <v>8.3333300000000004E-5</v>
       </c>
       <c r="E69" t="s">
         <v>2085</v>
@@ -19577,7 +19577,7 @@
         <v>2184</v>
       </c>
       <c r="D70" s="1">
-        <v>6.6666699999999999</v>
+        <v>6.6666699999999996E-5</v>
       </c>
       <c r="E70" t="s">
         <v>2085</v>
@@ -19594,7 +19594,7 @@
         <v>2186</v>
       </c>
       <c r="D71" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E71" t="s">
         <v>1842</v>
@@ -19611,7 +19611,7 @@
         <v>2188</v>
       </c>
       <c r="D72" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E72" t="s">
         <v>501</v>
@@ -19628,7 +19628,7 @@
         <v>2190</v>
       </c>
       <c r="D73" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E73" t="s">
         <v>501</v>
@@ -19645,7 +19645,7 @@
         <v>2192</v>
       </c>
       <c r="D74" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E74" t="s">
         <v>501</v>
@@ -19662,7 +19662,7 @@
         <v>2194</v>
       </c>
       <c r="D75" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E75" t="s">
         <v>2195</v>
@@ -19679,7 +19679,7 @@
         <v>2197</v>
       </c>
       <c r="D76" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E76" t="s">
         <v>2195</v>
@@ -19696,7 +19696,7 @@
         <v>2199</v>
       </c>
       <c r="D77" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E77" t="s">
         <v>2195</v>
@@ -19713,7 +19713,7 @@
         <v>2201</v>
       </c>
       <c r="D78" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E78" t="s">
         <v>2195</v>
@@ -19730,7 +19730,7 @@
         <v>2203</v>
       </c>
       <c r="D79" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E79" t="s">
         <v>2204</v>
@@ -19747,7 +19747,7 @@
         <v>2206</v>
       </c>
       <c r="D80" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E80" t="s">
         <v>2195</v>
@@ -19764,7 +19764,7 @@
         <v>2208</v>
       </c>
       <c r="D81" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E81" t="s">
         <v>2195</v>
@@ -19781,7 +19781,7 @@
         <v>2210</v>
       </c>
       <c r="D82" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E82" t="s">
         <v>2195</v>
@@ -19798,7 +19798,7 @@
         <v>2212</v>
       </c>
       <c r="D83" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E83" t="s">
         <v>2195</v>
@@ -19815,7 +19815,7 @@
         <v>2214</v>
       </c>
       <c r="D84" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E84" t="s">
         <v>2204</v>
@@ -19832,7 +19832,7 @@
         <v>2216</v>
       </c>
       <c r="D85" s="1">
-        <v>3.3333300000000001</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E85" t="s">
         <v>2195</v>
@@ -19849,7 +19849,7 @@
         <v>2218</v>
       </c>
       <c r="D86" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E86" t="s">
         <v>1842</v>
@@ -19866,7 +19866,7 @@
         <v>2220</v>
       </c>
       <c r="D87" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E87" t="s">
         <v>501</v>
@@ -19883,7 +19883,7 @@
         <v>2222</v>
       </c>
       <c r="D88" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E88" t="s">
         <v>501</v>
@@ -19900,7 +19900,7 @@
         <v>2224</v>
       </c>
       <c r="D89" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E89" t="s">
         <v>501</v>
@@ -19917,7 +19917,7 @@
         <v>2226</v>
       </c>
       <c r="D90" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E90" t="s">
         <v>501</v>
@@ -19934,7 +19934,7 @@
         <v>2228</v>
       </c>
       <c r="D91" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E91" t="s">
         <v>1842</v>
@@ -19951,7 +19951,7 @@
         <v>2230</v>
       </c>
       <c r="D92" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E92" t="s">
         <v>501</v>
@@ -19968,7 +19968,7 @@
         <v>2232</v>
       </c>
       <c r="D93" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E93" t="s">
         <v>2195</v>
@@ -19985,7 +19985,7 @@
         <v>2234</v>
       </c>
       <c r="D94" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E94" t="s">
         <v>1842</v>
@@ -20002,7 +20002,7 @@
         <v>2236</v>
       </c>
       <c r="D95" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E95" t="s">
         <v>1842</v>
@@ -20019,7 +20019,7 @@
         <v>2238</v>
       </c>
       <c r="D96" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E96" t="s">
         <v>1842</v>
@@ -20036,7 +20036,7 @@
         <v>2240</v>
       </c>
       <c r="D97" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E97" t="s">
         <v>2195</v>
@@ -20053,7 +20053,7 @@
         <v>2242</v>
       </c>
       <c r="D98" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E98" t="s">
         <v>2195</v>
@@ -20070,7 +20070,7 @@
         <v>2244</v>
       </c>
       <c r="D99" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E99" t="s">
         <v>2195</v>
@@ -20087,7 +20087,7 @@
         <v>2246</v>
       </c>
       <c r="D100" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E100" t="s">
         <v>2247</v>
@@ -20104,7 +20104,7 @@
         <v>2249</v>
       </c>
       <c r="D101" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E101" t="s">
         <v>2247</v>
@@ -20121,7 +20121,7 @@
         <v>2251</v>
       </c>
       <c r="D102" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E102" t="s">
         <v>2247</v>
@@ -20138,7 +20138,7 @@
         <v>2253</v>
       </c>
       <c r="D103" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E103" t="s">
         <v>2247</v>
@@ -20155,7 +20155,7 @@
         <v>2255</v>
       </c>
       <c r="D104" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E104" t="s">
         <v>1114</v>
@@ -20172,7 +20172,7 @@
         <v>2257</v>
       </c>
       <c r="D105" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E105" t="s">
         <v>2247</v>
@@ -20189,7 +20189,7 @@
         <v>2259</v>
       </c>
       <c r="D106" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E106" t="s">
         <v>1114</v>
@@ -20206,7 +20206,7 @@
         <v>2261</v>
       </c>
       <c r="D107" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E107" t="s">
         <v>2247</v>
@@ -20223,7 +20223,7 @@
         <v>2263</v>
       </c>
       <c r="D108" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E108" t="s">
         <v>2247</v>
@@ -20257,7 +20257,7 @@
         <v>2267</v>
       </c>
       <c r="D110" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E110" t="s">
         <v>1114</v>
@@ -20291,7 +20291,7 @@
         <v>2271</v>
       </c>
       <c r="D112" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E112" t="s">
         <v>1114</v>
@@ -20325,7 +20325,7 @@
         <v>2275</v>
       </c>
       <c r="D114" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E114" t="s">
         <v>1114</v>
@@ -20359,7 +20359,7 @@
         <v>2279</v>
       </c>
       <c r="D116" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E116" t="s">
         <v>2247</v>
@@ -20393,7 +20393,7 @@
         <v>2283</v>
       </c>
       <c r="D118" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E118" t="s">
         <v>1114</v>
@@ -20427,7 +20427,7 @@
         <v>2287</v>
       </c>
       <c r="D120" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E120" t="s">
         <v>1114</v>
@@ -20461,7 +20461,7 @@
         <v>2291</v>
       </c>
       <c r="D122" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E122" t="s">
         <v>1114</v>
@@ -20495,7 +20495,7 @@
         <v>2295</v>
       </c>
       <c r="D124" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E124" t="s">
         <v>2296</v>
@@ -20529,7 +20529,7 @@
         <v>2300</v>
       </c>
       <c r="D126" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E126" t="s">
         <v>2296</v>
@@ -20563,7 +20563,7 @@
         <v>2304</v>
       </c>
       <c r="D128" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E128" t="s">
         <v>1114</v>
@@ -20597,7 +20597,7 @@
         <v>2308</v>
       </c>
       <c r="D130" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E130" t="s">
         <v>2296</v>
@@ -20631,7 +20631,7 @@
         <v>2312</v>
       </c>
       <c r="D132" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E132" t="s">
         <v>2296</v>
@@ -20665,7 +20665,7 @@
         <v>2316</v>
       </c>
       <c r="D134" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E134" t="s">
         <v>2296</v>
@@ -20699,7 +20699,7 @@
         <v>2320</v>
       </c>
       <c r="D136" s="1">
-        <v>1.6666700000000001</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E136" t="s">
         <v>2296</v>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="soft1" sheetId="1" r:id="rId1"/>
@@ -17233,7 +17233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A31" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -18387,8 +18387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
